--- a/medicine/Sexualité et sexologie/Les_Petites_Filles_modèles_(film,_1971)/Les_Petites_Filles_modèles_(film,_1971).xlsx
+++ b/medicine/Sexualité et sexologie/Les_Petites_Filles_modèles_(film,_1971)/Les_Petites_Filles_modèles_(film,_1971).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les_(film,_1971)</t>
+          <t>Les_Petites_Filles_modèles_(film,_1971)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Petites Filles modèles est un film français de Jean-Claude Roy sorti en 1971. 
 C'est une fausse suite érotique du roman éponyme de la Comtesse de Ségur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les_(film,_1971)</t>
+          <t>Les_Petites_Filles_modèles_(film,_1971)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la France du début des années soixante-dix, les héroïnes de la Comtesse de Ségur ont grandi. Ce sont maintenant des jeunes filles avec les préoccupations de leur âge. Dans la quiétude de la campagne, Madame de Fleurville et Madame de Rosbourg partagent ces préoccupations et font le même constat : « ça manque d'hommes… »
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les_(film,_1971)</t>
+          <t>Les_Petites_Filles_modèles_(film,_1971)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Petites Filles modèles
 Réalisation : Jean-Claude Roy
@@ -569,7 +585,7 @@
 Auditorium : Avia Films
 Laboratoires : Laboratoires Éclair
 Format : couleur 35 mm - Pellicule Eastmancolor
-Dates de tournage : 6 juillet - 8 août 1970[1]
+Dates de tournage : 6 juillet - 8 août 1970
 Lieux de tournage : Auneau (Eure-et-Loir)
 Pays :  France
 Langue originale : français
@@ -581,7 +597,7 @@
  France : 5 mai 1971
  Allemagne : 12 mai 1972
  Italie : 1980
-Interdiction aux moins de 18 ans à sa sortie en salles en France[2].
+Interdiction aux moins de 18 ans à sa sortie en salles en France.
 Autres titres connus
  Royaume-Uni : Good Little Girls
  États-Unis : The Granddaughter's Model
@@ -596,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les_(film,_1971)</t>
+          <t>Les_Petites_Filles_modèles_(film,_1971)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,7 +630,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jessica Dorn : Madeleine de Fleurville
@@ -649,7 +667,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les_(film,_1971)</t>
+          <t>Les_Petites_Filles_modèles_(film,_1971)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,7 +685,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut relever une triste coïncidence dans l'après du film. Trois de ses interprètes principales se sont donné la mort : Bella Darvi en 1971, Michèle Girardon en 1975, et Marie-Georges Pascal en 1985.
 </t>
@@ -680,7 +700,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les_(film,_1971)</t>
+          <t>Les_Petites_Filles_modèles_(film,_1971)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -698,7 +718,9 @@
           <t>Éditions en vidéo</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">2008 : Édition DVD - Éditeur : Zylo - Sortie le 20/10/2008 - Titre : Les Petites Filles Modèles - mention : tous publics
 </t>
